--- a/lightreborn/backend/src/main/resources/data/promotion/xlsx/updated_promotion_status_full_sample.xlsx
+++ b/lightreborn/backend/src/main/resources/data/promotion/xlsx/updated_promotion_status_full_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\workspace\S12P31S309\lightreborn\backend\src\main\resources\data\promotion\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>주소</t>
   </si>
@@ -36,110 +36,234 @@
     <t>상태 변경 시각</t>
   </si>
   <si>
+    <t>행정동 코드</t>
+  </si>
+  <si>
+    <t>행정동 이름</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 중앙동로 90</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 양주동로 42</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 삼성동로 23</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 강서동로 78</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 서창동로 96</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 소주동로 79</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 평산동로 60</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 덕계동로 62</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 물금읍로 95</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 동면로 94</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 원동면로 36</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 상북면로 32</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 하북면로 82</t>
+  </si>
+  <si>
+    <t>카페</t>
+  </si>
+  <si>
+    <t>pc방</t>
+  </si>
+  <si>
+    <t>약국</t>
+  </si>
+  <si>
+    <t>편의점</t>
+  </si>
+  <si>
+    <t>중앙동</t>
+  </si>
+  <si>
+    <t>양주동</t>
+  </si>
+  <si>
+    <t>삼성동</t>
+  </si>
+  <si>
+    <t>강서동</t>
+  </si>
+  <si>
+    <t>서창동</t>
+  </si>
+  <si>
+    <t>소주동</t>
+  </si>
+  <si>
+    <t>평산동</t>
+  </si>
+  <si>
+    <t>덕계동</t>
+  </si>
+  <si>
+    <t>물금읍</t>
+  </si>
+  <si>
+    <t>동면</t>
+  </si>
+  <si>
+    <t>원동면</t>
+  </si>
+  <si>
+    <t>상북면</t>
+  </si>
+  <si>
+    <t>하북면</t>
+  </si>
+  <si>
+    <t>pc방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보물 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>홍보물 유형</t>
-  </si>
-  <si>
-    <t>행정동 코드</t>
-  </si>
-  <si>
-    <t>행정동 이름</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 중앙동로 90</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 양주동로 42</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 삼성동로 23</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 강서동로 78</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 서창동로 96</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 소주동로 79</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 평산동로 60</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 덕계동로 62</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 물금읍로 95</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 동면로 94</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 원동면로 36</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 상북면로 32</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 하북면로 82</t>
-  </si>
-  <si>
-    <t>카페</t>
-  </si>
-  <si>
-    <t>pc방</t>
-  </si>
-  <si>
-    <t>약국</t>
-  </si>
-  <si>
-    <t>편의점</t>
-  </si>
-  <si>
-    <t>중앙동</t>
-  </si>
-  <si>
-    <t>양주동</t>
-  </si>
-  <si>
-    <t>삼성동</t>
-  </si>
-  <si>
-    <t>강서동</t>
-  </si>
-  <si>
-    <t>서창동</t>
-  </si>
-  <si>
-    <t>소주동</t>
-  </si>
-  <si>
-    <t>평산동</t>
-  </si>
-  <si>
-    <t>덕계동</t>
-  </si>
-  <si>
-    <t>물금읍</t>
-  </si>
-  <si>
-    <t>동면</t>
-  </si>
-  <si>
-    <t>원동면</t>
-  </si>
-  <si>
-    <t>상북면</t>
-  </si>
-  <si>
-    <t>하북면</t>
-  </si>
-  <si>
-    <t>카페</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보물 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔청년을 위한 상담 지원 프로그램 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이린PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고립청년 대상 취업 연계 서비스 홍보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포즈커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현수막</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신건강 전문상담소 무료 이용 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸피PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인 가구 청년을 위한 지역 커뮤니티 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔고립청년 복귀 지원금 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리치료 프로그램 참여자 모집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조이편이점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현수막</t>
+  </si>
+  <si>
+    <t>청년 대상 자립 생활 교육과정 홍보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고립청년 긴급지원 핫라인 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투썸플레이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 복지센터 신규 오픈 소식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브런치101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔청년 위한 거리 캠페인 일정 공지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온누리약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 대상 자립 생활 교육과정 홍보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X배너</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +292,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF032F62"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -209,12 +341,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -519,19 +652,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="4" max="4" width="53.75" customWidth="1"/>
-    <col min="5" max="5" width="58.875" customWidth="1"/>
+    <col min="4" max="4" width="14.6875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,18 +681,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>35.344253999999999</v>
@@ -574,18 +716,27 @@
         <v>45780.5</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>48330250</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>35.346299000000002</v>
@@ -600,18 +751,27 @@
         <v>45781.541666666664</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>48330253</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>35.306024999999998</v>
@@ -623,21 +783,30 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>45778.583333333343</v>
+        <v>45778.75</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>48330256</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>35.365758999999997</v>
@@ -652,18 +821,27 @@
         <v>45778.458333333343</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>48330259</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>35.306893000000002</v>
@@ -678,18 +856,27 @@
         <v>45778.375</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>48330262</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>35.334887000000002</v>
@@ -704,18 +891,27 @@
         <v>45780.541666666657</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>48330265</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>35.344785999999999</v>
@@ -730,18 +926,27 @@
         <v>45778.666666666657</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>48330268</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>35.348725999999999</v>
@@ -756,18 +961,27 @@
         <v>45780.375</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>48330271</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>35.359577000000002</v>
@@ -779,21 +993,30 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>45778.75</v>
+        <v>45781.75</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>48330110</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>35.386656000000002</v>
@@ -808,18 +1031,27 @@
         <v>45779.416666666657</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>48330120</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>35.324255999999998</v>
@@ -834,18 +1066,27 @@
         <v>45778.625</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <v>48330130</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>35.303508999999998</v>
@@ -857,21 +1098,30 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>45779.458333333343</v>
+        <v>45781.458333333336</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <v>48330140</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>35.331434000000002</v>
@@ -883,16 +1133,25 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>45779.625</v>
+        <v>45780.625</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14">
         <v>48330150</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
